--- a/data/trans_dic/ProbViv_temp-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.4852799408667057</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5026334440807785</v>
+        <v>0.5026334440807783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4954652685862387</v>
+        <v>0.4954652685862385</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4475757723185977</v>
+        <v>0.4458912089044486</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4771459876854102</v>
+        <v>0.4737562461557674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4740217399589598</v>
+        <v>0.4719017940907165</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5287840084860441</v>
+        <v>0.5262466505073715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5300014265480654</v>
+        <v>0.529036642427567</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5186411000543885</v>
+        <v>0.5209919958559363</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.4071788683324341</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4058501355737995</v>
+        <v>0.4058501355737994</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.40652343283326</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3846347394867765</v>
+        <v>0.384827721413991</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3858683340890164</v>
+        <v>0.3872531949917428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3925696978344339</v>
+        <v>0.3895780623775063</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4307470850322512</v>
+        <v>0.4328432645313704</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4258394374662389</v>
+        <v>0.4269514717975912</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4232176972181609</v>
+        <v>0.4216303279536387</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3506604216297193</v>
+        <v>0.3506604216297192</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3302162577581854</v>
+        <v>0.3302162577581853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3402737488085774</v>
+        <v>0.3402737488085773</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3080363580786875</v>
+        <v>0.3102584546970378</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2987363044379022</v>
+        <v>0.3005331047594357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3161413860445709</v>
+        <v>0.3160228175375124</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3882534310922932</v>
+        <v>0.3882341907505468</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.362960505600021</v>
+        <v>0.3635456655725162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3659675387979591</v>
+        <v>0.3660278204414903</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.4085893826805577</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4122814523815346</v>
+        <v>0.4122814523815345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.410488291382761</v>
+        <v>0.4104882913827611</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3930412681443013</v>
+        <v>0.3902993731568979</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3990932352232868</v>
+        <v>0.3995246248608015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3986922317736601</v>
+        <v>0.3991955629829221</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4283339701825432</v>
+        <v>0.4298596535902752</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4264328612746857</v>
+        <v>0.4272233379686647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4216574947555639</v>
+        <v>0.4232600879770704</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>258936</v>
+        <v>257961</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>392232</v>
+        <v>389446</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>663899</v>
+        <v>660930</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>305917</v>
+        <v>304449</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>435681</v>
+        <v>434888</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>726392</v>
+        <v>729684</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>857953</v>
+        <v>858384</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>837871</v>
+        <v>840878</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1728076</v>
+        <v>1714907</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>960810</v>
+        <v>965485</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>924664</v>
+        <v>927079</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1862987</v>
+        <v>1855999</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>219195</v>
+        <v>220776</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>219534</v>
+        <v>220855</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>457287</v>
+        <v>457116</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>276276</v>
+        <v>276262</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>266731</v>
+        <v>267161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>529359</v>
+        <v>529446</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1383774</v>
+        <v>1374120</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1487942</v>
+        <v>1489550</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2890116</v>
+        <v>2893765</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1508028</v>
+        <v>1513400</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1589873</v>
+        <v>1592820</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3056591</v>
+        <v>3068208</v>
       </c>
     </row>
     <row r="20">
